--- a/input/raw_data/final_report/full_text_screen_end_ms.xlsx
+++ b/input/raw_data/final_report/full_text_screen_end_ms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Library/Mobile Documents/com~apple~CloudDocs/Dev/data/msc/dissertation/iifo_data/lit_search_4/input/raw_data/full_text_screen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/final_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC69551-F07D-604A-8460-9C5B5D7D80D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCECC666-42B2-CF4A-A364-49477D7F9CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="13060" windowWidth="20580" windowHeight="12240" xr2:uid="{077AE97E-8418-4769-81AE-8A3938F04241}"/>
+    <workbookView xWindow="-20" yWindow="880" windowWidth="20560" windowHeight="24440" xr2:uid="{077AE97E-8418-4769-81AE-8A3938F04241}"/>
   </bookViews>
   <sheets>
     <sheet name="MS Review" sheetId="1" r:id="rId1"/>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26470A0-A3C1-47C2-90CB-E198FCDFBF87}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1926,7 +1926,10 @@
         <v>26</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -2245,7 +2248,10 @@
         <v>26</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>14</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
